--- a/tables/MMSE/ChannelParams.xlsx
+++ b/tables/MMSE/ChannelParams.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Parameter</t>
   </si>
@@ -28,7 +28,7 @@
     <t>P=10</t>
   </si>
   <si>
-    <t>Pilot Symbols</t>
+    <t>Transmitted Pilot Vector</t>
   </si>
   <si>
     <t>h</t>
@@ -49,10 +49,40 @@
     <t>yp</t>
   </si>
   <si>
-    <t>L+P-1=14</t>
-  </si>
-  <si>
-    <t>Received Pilot Symbols</t>
+    <t>L-1+P=14</t>
+  </si>
+  <si>
+    <t>Received Pilot Symbol Vector</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>L-1xL-1 = 4 x 4</t>
+  </si>
+  <si>
+    <t>Identiy Matrix</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Flips vector</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>P = 10</t>
+  </si>
+  <si>
+    <t>Circular Received Pilot Vector</t>
+  </si>
+  <si>
+    <t>Ones Vector</t>
+  </si>
+  <si>
+    <t>Zeros Vector</t>
   </si>
 </sst>
 </file>
@@ -78,8 +108,19 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -98,21 +139,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -330,541 +383,572 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.43"/>
-    <col customWidth="1" min="2" max="2" width="12.0"/>
+    <col customWidth="1" min="1" max="1" width="11.71"/>
+    <col customWidth="1" min="2" max="2" width="16.14"/>
     <col customWidth="1" min="3" max="3" width="13.71"/>
     <col customWidth="1" min="4" max="6" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="29.25" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+    <row r="6" ht="21.0" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="24.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5">
+        <v>0.0</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
